--- a/calimApplication.xlsx
+++ b/calimApplication.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="53">
   <si>
     <t>151-0002
 東京都渋谷区渋谷1-2-5 
@@ -118,15 +118,6 @@
   </si>
   <si>
     <t>税込合計金額：</t>
-  </si>
-  <si>
-    <t>消費税額：</t>
-  </si>
-  <si>
-    <t>（税率：</t>
-  </si>
-  <si>
-    <t>％）</t>
   </si>
   <si>
     <t>件　　名　：</t>
@@ -478,7 +469,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="110">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -652,10 +643,7 @@
     </xf>
     <xf borderId="9" fillId="0" fontId="15" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="9" fillId="0" fontId="17" numFmtId="169" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="169" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -733,7 +721,7 @@
     <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="38" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -761,6 +749,9 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -772,6 +763,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -796,7 +790,7 @@
     <xdr:ext cx="1285875" cy="485775"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -828,12 +822,12 @@
       <xdr:col>20</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:rowOff>390525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="666750" cy="676275"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -865,12 +859,12 @@
       <xdr:col>19</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:rowOff>466725</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="666750" cy="676275"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -8485,17 +8479,6 @@
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="6"/>
@@ -8510,7 +8493,6 @@
     </row>
     <row r="3" ht="54.75" customHeight="1">
       <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
       <c r="N3" s="10"/>
       <c r="O3" s="10"/>
       <c r="P3" s="10"/>
@@ -8880,21 +8862,16 @@
       <c r="G16" s="61"/>
       <c r="H16" s="61"/>
       <c r="I16" s="61"/>
-      <c r="J16" s="63" t="s">
-        <v>28</v>
-      </c>
+      <c r="J16" s="61"/>
       <c r="K16" s="61"/>
-      <c r="L16" s="64">
-        <f>F18*M18/100</f>
-        <v>0</v>
-      </c>
+      <c r="L16" s="63"/>
       <c r="O16" s="1"/>
-      <c r="P16" s="65"/>
-      <c r="R16" s="66"/>
-      <c r="S16" s="65"/>
-      <c r="U16" s="66"/>
-      <c r="V16" s="65"/>
-      <c r="X16" s="66"/>
+      <c r="P16" s="64"/>
+      <c r="R16" s="65"/>
+      <c r="S16" s="64"/>
+      <c r="U16" s="65"/>
+      <c r="V16" s="64"/>
+      <c r="X16" s="65"/>
       <c r="Y16" s="23"/>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
@@ -8903,29 +8880,29 @@
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="67"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="67"/>
-      <c r="L17" s="67"/>
-      <c r="M17" s="67"/>
-      <c r="N17" s="67"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="66"/>
+      <c r="N17" s="66"/>
       <c r="O17" s="1"/>
-      <c r="P17" s="68"/>
-      <c r="Q17" s="67"/>
-      <c r="R17" s="69"/>
-      <c r="S17" s="68"/>
-      <c r="T17" s="67"/>
-      <c r="U17" s="69"/>
-      <c r="V17" s="68"/>
-      <c r="W17" s="67"/>
-      <c r="X17" s="69"/>
+      <c r="P17" s="67"/>
+      <c r="Q17" s="66"/>
+      <c r="R17" s="68"/>
+      <c r="S17" s="67"/>
+      <c r="T17" s="66"/>
+      <c r="U17" s="68"/>
+      <c r="V17" s="67"/>
+      <c r="W17" s="66"/>
+      <c r="X17" s="68"/>
       <c r="Y17" s="20"/>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
@@ -8938,32 +8915,26 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="70">
+      <c r="F18" s="69">
         <v>0.0</v>
       </c>
       <c r="G18" s="58"/>
       <c r="H18" s="58"/>
       <c r="I18" s="58"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="72" t="s">
-        <v>29</v>
-      </c>
-      <c r="M18" s="73">
-        <v>10.0</v>
-      </c>
-      <c r="N18" s="71" t="s">
-        <v>30</v>
-      </c>
-      <c r="P18" s="74"/>
-      <c r="Q18" s="74"/>
-      <c r="R18" s="74"/>
-      <c r="S18" s="74"/>
-      <c r="T18" s="74"/>
-      <c r="U18" s="74"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="71"/>
+      <c r="M18" s="72"/>
+      <c r="N18" s="70"/>
+      <c r="P18" s="73"/>
+      <c r="Q18" s="73"/>
+      <c r="R18" s="73"/>
+      <c r="S18" s="73"/>
+      <c r="T18" s="73"/>
+      <c r="U18" s="73"/>
       <c r="V18" s="1"/>
-      <c r="W18" s="75"/>
+      <c r="W18" s="74"/>
       <c r="X18" s="3"/>
-      <c r="Y18" s="76"/>
+      <c r="Y18" s="75"/>
       <c r="Z18" s="20"/>
       <c r="AA18" s="3"/>
       <c r="AB18" s="3"/>
@@ -8971,32 +8942,32 @@
     </row>
     <row r="19" ht="24.75" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="77" t="s">
-        <v>31</v>
+      <c r="B19" s="76" t="s">
+        <v>28</v>
       </c>
-      <c r="C19" s="78"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="78"/>
-      <c r="I19" s="78"/>
-      <c r="J19" s="78"/>
-      <c r="K19" s="78"/>
-      <c r="L19" s="78"/>
-      <c r="M19" s="78"/>
-      <c r="N19" s="78"/>
-      <c r="O19" s="78"/>
-      <c r="P19" s="78"/>
-      <c r="Q19" s="78"/>
-      <c r="R19" s="78"/>
-      <c r="S19" s="78"/>
-      <c r="T19" s="78"/>
-      <c r="U19" s="78"/>
-      <c r="V19" s="78"/>
-      <c r="W19" s="78"/>
-      <c r="X19" s="78"/>
-      <c r="Y19" s="80"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="77"/>
+      <c r="M19" s="77"/>
+      <c r="N19" s="77"/>
+      <c r="O19" s="77"/>
+      <c r="P19" s="77"/>
+      <c r="Q19" s="77"/>
+      <c r="R19" s="77"/>
+      <c r="S19" s="77"/>
+      <c r="T19" s="77"/>
+      <c r="U19" s="77"/>
+      <c r="V19" s="77"/>
+      <c r="W19" s="77"/>
+      <c r="X19" s="77"/>
+      <c r="Y19" s="79"/>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
@@ -9035,58 +9006,58 @@
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="81" t="s">
+      <c r="B21" s="80" t="s">
+        <v>29</v>
+      </c>
+      <c r="N21" s="81"/>
+      <c r="O21" s="80" t="s">
+        <v>30</v>
+      </c>
+      <c r="P21" s="82"/>
+      <c r="Q21" s="80" t="s">
+        <v>31</v>
+      </c>
+      <c r="S21" s="82"/>
+      <c r="T21" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="N21" s="82"/>
-      <c r="O21" s="81" t="s">
+      <c r="V21" s="82"/>
+      <c r="W21" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="P21" s="83"/>
-      <c r="Q21" s="81" t="s">
+      <c r="Z21" s="84"/>
+      <c r="AA21" s="84"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+    </row>
+    <row r="22" ht="12.0" customHeight="1">
+      <c r="A22" s="1"/>
+      <c r="B22" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="S21" s="83"/>
-      <c r="T21" s="81" t="s">
-        <v>35</v>
-      </c>
-      <c r="V21" s="83"/>
-      <c r="W21" s="84" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z21" s="85"/>
-      <c r="AA21" s="85"/>
-      <c r="AB21" s="1"/>
-      <c r="AC21" s="1"/>
-    </row>
-    <row r="22" ht="12.0" customHeight="1">
-      <c r="A22" s="1"/>
-      <c r="B22" s="86" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="87"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="87"/>
-      <c r="F22" s="87"/>
-      <c r="G22" s="87"/>
-      <c r="H22" s="87"/>
-      <c r="I22" s="87"/>
-      <c r="J22" s="87"/>
-      <c r="K22" s="87"/>
-      <c r="L22" s="87"/>
-      <c r="M22" s="87"/>
-      <c r="N22" s="88"/>
-      <c r="O22" s="89"/>
-      <c r="P22" s="89"/>
-      <c r="Q22" s="89"/>
-      <c r="R22" s="89"/>
-      <c r="S22" s="89"/>
-      <c r="T22" s="89"/>
-      <c r="U22" s="89"/>
-      <c r="V22" s="88"/>
-      <c r="W22" s="90"/>
-      <c r="X22" s="88"/>
-      <c r="Y22" s="91"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="86"/>
+      <c r="J22" s="86"/>
+      <c r="K22" s="86"/>
+      <c r="L22" s="86"/>
+      <c r="M22" s="86"/>
+      <c r="N22" s="87"/>
+      <c r="O22" s="88"/>
+      <c r="P22" s="88"/>
+      <c r="Q22" s="88"/>
+      <c r="R22" s="88"/>
+      <c r="S22" s="88"/>
+      <c r="T22" s="88"/>
+      <c r="U22" s="88"/>
+      <c r="V22" s="87"/>
+      <c r="W22" s="89"/>
+      <c r="X22" s="87"/>
+      <c r="Y22" s="90"/>
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
@@ -16071,14 +16042,14 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="34">
     <mergeCell ref="S2:X2"/>
-    <mergeCell ref="B3:M3"/>
     <mergeCell ref="O4:W4"/>
     <mergeCell ref="O5:X5"/>
     <mergeCell ref="O6:Y6"/>
     <mergeCell ref="B7:X7"/>
     <mergeCell ref="B10:N10"/>
+    <mergeCell ref="B2:M3"/>
     <mergeCell ref="S14:U14"/>
     <mergeCell ref="V14:X14"/>
     <mergeCell ref="P15:R17"/>
@@ -16103,10 +16074,9 @@
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="E15:I15"/>
     <mergeCell ref="B16:E17"/>
-    <mergeCell ref="F16:I17"/>
-    <mergeCell ref="J16:K17"/>
     <mergeCell ref="L16:N17"/>
     <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F16:K17"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -16211,7 +16181,7 @@
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
     </row>
-    <row r="3" ht="54.75" customHeight="1">
+    <row r="3" ht="67.5" customHeight="1">
       <c r="A3" s="8"/>
       <c r="B3" s="9"/>
       <c r="N3" s="10"/>
@@ -16220,11 +16190,6 @@
       <c r="Q3" s="10"/>
       <c r="R3" s="10"/>
       <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="33"/>
-      <c r="X3" s="6"/>
       <c r="Y3" s="8"/>
       <c r="Z3" s="8"/>
       <c r="AA3" s="8"/>
@@ -16235,10 +16200,10 @@
       <c r="A4" s="10"/>
       <c r="N4" s="34"/>
       <c r="O4" s="20" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="V4" s="10"/>
-      <c r="W4" s="92"/>
+      <c r="W4" s="91"/>
       <c r="X4" s="35"/>
       <c r="Y4" s="10"/>
       <c r="Z4" s="10"/>
@@ -16249,8 +16214,8 @@
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1"/>
       <c r="N5" s="36"/>
-      <c r="O5" s="93" t="s">
-        <v>39</v>
+      <c r="O5" s="92" t="s">
+        <v>36</v>
       </c>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
@@ -16262,15 +16227,15 @@
       <c r="A6" s="1"/>
       <c r="N6" s="36"/>
       <c r="O6" s="23" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
     </row>
     <row r="7" ht="30.75" customHeight="1">
       <c r="A7" s="8"/>
-      <c r="B7" s="94" t="s">
-        <v>41</v>
+      <c r="B7" s="93" t="s">
+        <v>38</v>
       </c>
       <c r="Y7" s="39"/>
       <c r="Z7" s="8"/>
@@ -16343,7 +16308,7 @@
     <row r="10" ht="13.5" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="43" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="O10" s="23"/>
       <c r="P10" s="23"/>
@@ -16395,7 +16360,7 @@
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="45"/>
       <c r="B12" s="45" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C12" s="46"/>
       <c r="D12" s="46"/>
@@ -16428,7 +16393,7 @@
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="45" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C13" s="46"/>
       <c r="D13" s="46"/>
@@ -16541,16 +16506,16 @@
       <c r="G16" s="61"/>
       <c r="H16" s="61"/>
       <c r="I16" s="61"/>
-      <c r="J16" s="63"/>
+      <c r="J16" s="61"/>
       <c r="K16" s="61"/>
-      <c r="L16" s="64"/>
+      <c r="L16" s="63"/>
       <c r="O16" s="1"/>
-      <c r="P16" s="65"/>
-      <c r="R16" s="66"/>
-      <c r="S16" s="65"/>
-      <c r="U16" s="66"/>
-      <c r="V16" s="65"/>
-      <c r="X16" s="66"/>
+      <c r="P16" s="64"/>
+      <c r="R16" s="65"/>
+      <c r="S16" s="64"/>
+      <c r="U16" s="65"/>
+      <c r="V16" s="64"/>
+      <c r="X16" s="65"/>
       <c r="Y16" s="23"/>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
@@ -16559,29 +16524,29 @@
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="67"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="67"/>
-      <c r="L17" s="67"/>
-      <c r="M17" s="67"/>
-      <c r="N17" s="67"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="66"/>
+      <c r="N17" s="66"/>
       <c r="O17" s="1"/>
-      <c r="P17" s="68"/>
-      <c r="Q17" s="67"/>
-      <c r="R17" s="69"/>
-      <c r="S17" s="68"/>
-      <c r="T17" s="67"/>
-      <c r="U17" s="69"/>
-      <c r="V17" s="68"/>
-      <c r="W17" s="67"/>
-      <c r="X17" s="69"/>
+      <c r="P17" s="67"/>
+      <c r="Q17" s="66"/>
+      <c r="R17" s="68"/>
+      <c r="S17" s="67"/>
+      <c r="T17" s="66"/>
+      <c r="U17" s="68"/>
+      <c r="V17" s="67"/>
+      <c r="W17" s="66"/>
+      <c r="X17" s="68"/>
       <c r="Y17" s="20"/>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
@@ -16594,26 +16559,26 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="70">
+      <c r="F18" s="69">
         <v>0.0</v>
       </c>
       <c r="G18" s="58"/>
       <c r="H18" s="58"/>
       <c r="I18" s="58"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="72"/>
-      <c r="M18" s="73"/>
-      <c r="N18" s="71"/>
-      <c r="P18" s="74"/>
-      <c r="Q18" s="74"/>
-      <c r="R18" s="74"/>
-      <c r="S18" s="74"/>
-      <c r="T18" s="74"/>
-      <c r="U18" s="74"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="71"/>
+      <c r="M18" s="72"/>
+      <c r="N18" s="70"/>
+      <c r="P18" s="73"/>
+      <c r="Q18" s="73"/>
+      <c r="R18" s="73"/>
+      <c r="S18" s="73"/>
+      <c r="T18" s="73"/>
+      <c r="U18" s="73"/>
       <c r="V18" s="1"/>
-      <c r="W18" s="75"/>
+      <c r="W18" s="74"/>
       <c r="X18" s="3"/>
-      <c r="Y18" s="76"/>
+      <c r="Y18" s="75"/>
       <c r="Z18" s="20"/>
       <c r="AA18" s="3"/>
       <c r="AB18" s="3"/>
@@ -16621,32 +16586,32 @@
     </row>
     <row r="19" ht="21.0" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="77" t="s">
-        <v>31</v>
+      <c r="B19" s="76" t="s">
+        <v>28</v>
       </c>
-      <c r="C19" s="78"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="78"/>
-      <c r="I19" s="78"/>
-      <c r="J19" s="78"/>
-      <c r="K19" s="78"/>
-      <c r="L19" s="78"/>
-      <c r="M19" s="78"/>
-      <c r="N19" s="78"/>
-      <c r="O19" s="78"/>
-      <c r="P19" s="78"/>
-      <c r="Q19" s="78"/>
-      <c r="R19" s="78"/>
-      <c r="S19" s="78"/>
-      <c r="T19" s="78"/>
-      <c r="U19" s="78"/>
-      <c r="V19" s="78"/>
-      <c r="W19" s="78"/>
-      <c r="X19" s="78"/>
-      <c r="Y19" s="80"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="77"/>
+      <c r="M19" s="77"/>
+      <c r="N19" s="77"/>
+      <c r="O19" s="77"/>
+      <c r="P19" s="77"/>
+      <c r="Q19" s="77"/>
+      <c r="R19" s="77"/>
+      <c r="S19" s="77"/>
+      <c r="T19" s="77"/>
+      <c r="U19" s="77"/>
+      <c r="V19" s="77"/>
+      <c r="W19" s="77"/>
+      <c r="X19" s="77"/>
+      <c r="Y19" s="79"/>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
@@ -16685,126 +16650,126 @@
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="81" t="s">
+      <c r="B21" s="80" t="s">
+        <v>29</v>
+      </c>
+      <c r="N21" s="81"/>
+      <c r="O21" s="80" t="s">
+        <v>30</v>
+      </c>
+      <c r="P21" s="82"/>
+      <c r="Q21" s="80" t="s">
+        <v>31</v>
+      </c>
+      <c r="S21" s="82"/>
+      <c r="T21" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="N21" s="82"/>
-      <c r="O21" s="81" t="s">
+      <c r="V21" s="82"/>
+      <c r="W21" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="P21" s="83"/>
-      <c r="Q21" s="81" t="s">
+      <c r="Z21" s="84"/>
+      <c r="AA21" s="84"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+    </row>
+    <row r="22" ht="18.0" customHeight="1">
+      <c r="A22" s="1"/>
+      <c r="B22" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="S21" s="83"/>
-      <c r="T21" s="81" t="s">
-        <v>35</v>
-      </c>
-      <c r="V21" s="83"/>
-      <c r="W21" s="84" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z21" s="85"/>
-      <c r="AA21" s="85"/>
-      <c r="AB21" s="1"/>
-      <c r="AC21" s="1"/>
-    </row>
-    <row r="22" ht="12.0" customHeight="1">
-      <c r="A22" s="1"/>
-      <c r="B22" s="86" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="87"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="87"/>
-      <c r="F22" s="87"/>
-      <c r="G22" s="87"/>
-      <c r="H22" s="87"/>
-      <c r="I22" s="87"/>
-      <c r="J22" s="87"/>
-      <c r="K22" s="87"/>
-      <c r="L22" s="87"/>
-      <c r="M22" s="87"/>
-      <c r="N22" s="88"/>
-      <c r="O22" s="89"/>
-      <c r="P22" s="89"/>
-      <c r="Q22" s="89"/>
-      <c r="R22" s="89"/>
-      <c r="S22" s="89"/>
-      <c r="T22" s="89"/>
-      <c r="U22" s="89"/>
-      <c r="V22" s="88"/>
-      <c r="W22" s="90"/>
-      <c r="X22" s="88"/>
-      <c r="Y22" s="91"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="86"/>
+      <c r="J22" s="86"/>
+      <c r="K22" s="86"/>
+      <c r="L22" s="86"/>
+      <c r="M22" s="86"/>
+      <c r="N22" s="87"/>
+      <c r="O22" s="88"/>
+      <c r="P22" s="88"/>
+      <c r="Q22" s="88"/>
+      <c r="R22" s="88"/>
+      <c r="S22" s="88"/>
+      <c r="T22" s="88"/>
+      <c r="U22" s="88"/>
+      <c r="V22" s="87"/>
+      <c r="W22" s="89"/>
+      <c r="X22" s="87"/>
+      <c r="Y22" s="90"/>
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
     </row>
-    <row r="23" ht="13.5" customHeight="1">
-      <c r="A23" s="95"/>
-      <c r="B23" s="96"/>
-      <c r="C23" s="96"/>
-      <c r="D23" s="96"/>
-      <c r="E23" s="96"/>
-      <c r="F23" s="96"/>
-      <c r="G23" s="96"/>
-      <c r="H23" s="96"/>
-      <c r="I23" s="96"/>
-      <c r="J23" s="96"/>
-      <c r="K23" s="96"/>
-      <c r="L23" s="96"/>
-      <c r="M23" s="96"/>
-      <c r="N23" s="96"/>
-      <c r="O23" s="97"/>
-      <c r="P23" s="98"/>
-      <c r="Q23" s="99"/>
-      <c r="R23" s="99"/>
-      <c r="S23" s="98"/>
-      <c r="T23" s="98"/>
-      <c r="U23" s="99"/>
-      <c r="V23" s="97"/>
-      <c r="W23" s="97"/>
-      <c r="X23" s="99"/>
-      <c r="Y23" s="99"/>
-      <c r="Z23" s="97"/>
+    <row r="23" ht="18.0" customHeight="1">
+      <c r="A23" s="94"/>
+      <c r="B23" s="95"/>
+      <c r="C23" s="95"/>
+      <c r="D23" s="95"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="95"/>
+      <c r="G23" s="95"/>
+      <c r="H23" s="95"/>
+      <c r="I23" s="95"/>
+      <c r="J23" s="95"/>
+      <c r="K23" s="95"/>
+      <c r="L23" s="95"/>
+      <c r="M23" s="95"/>
+      <c r="N23" s="95"/>
+      <c r="O23" s="96"/>
+      <c r="P23" s="97"/>
+      <c r="Q23" s="98"/>
+      <c r="R23" s="98"/>
+      <c r="S23" s="97"/>
+      <c r="T23" s="97"/>
+      <c r="U23" s="98"/>
+      <c r="V23" s="96"/>
+      <c r="W23" s="96"/>
+      <c r="X23" s="98"/>
+      <c r="Y23" s="98"/>
+      <c r="Z23" s="96"/>
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
     </row>
-    <row r="24" ht="13.5" customHeight="1">
-      <c r="A24" s="95"/>
-      <c r="B24" s="95"/>
-      <c r="C24" s="95"/>
-      <c r="D24" s="95"/>
-      <c r="E24" s="95"/>
-      <c r="F24" s="95"/>
-      <c r="G24" s="95"/>
-      <c r="H24" s="95"/>
-      <c r="I24" s="95"/>
-      <c r="J24" s="95"/>
-      <c r="K24" s="95"/>
-      <c r="L24" s="95"/>
-      <c r="M24" s="95"/>
-      <c r="N24" s="95"/>
-      <c r="O24" s="100"/>
-      <c r="P24" s="101"/>
-      <c r="Q24" s="101"/>
-      <c r="R24" s="101"/>
-      <c r="S24" s="101"/>
-      <c r="T24" s="101"/>
-      <c r="U24" s="101"/>
-      <c r="V24" s="100"/>
-      <c r="W24" s="100"/>
-      <c r="X24" s="100"/>
-      <c r="Y24" s="100"/>
-      <c r="Z24" s="100"/>
+    <row r="24" ht="18.0" customHeight="1">
+      <c r="A24" s="94"/>
+      <c r="B24" s="94"/>
+      <c r="C24" s="94"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="94"/>
+      <c r="H24" s="94"/>
+      <c r="I24" s="94"/>
+      <c r="J24" s="94"/>
+      <c r="K24" s="94"/>
+      <c r="L24" s="94"/>
+      <c r="M24" s="94"/>
+      <c r="N24" s="94"/>
+      <c r="O24" s="99"/>
+      <c r="P24" s="100"/>
+      <c r="Q24" s="100"/>
+      <c r="R24" s="100"/>
+      <c r="S24" s="100"/>
+      <c r="T24" s="100"/>
+      <c r="U24" s="100"/>
+      <c r="V24" s="99"/>
+      <c r="W24" s="99"/>
+      <c r="X24" s="99"/>
+      <c r="Y24" s="99"/>
+      <c r="Z24" s="99"/>
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
       <c r="AC24" s="1"/>
     </row>
-    <row r="25" ht="12.75" customHeight="1">
+    <row r="25" ht="18.0" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -16835,7 +16800,7 @@
       <c r="AB25" s="1"/>
       <c r="AC25" s="1"/>
     </row>
-    <row r="26" ht="10.5" customHeight="1">
+    <row r="26" ht="18.0" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -16866,7 +16831,7 @@
       <c r="AB26" s="1"/>
       <c r="AC26" s="1"/>
     </row>
-    <row r="27" ht="10.5" customHeight="1">
+    <row r="27" ht="18.0" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -23729,6 +23694,7 @@
     <mergeCell ref="O6:AA6"/>
     <mergeCell ref="B7:X7"/>
     <mergeCell ref="B10:N10"/>
+    <mergeCell ref="S3:X3"/>
     <mergeCell ref="S14:U14"/>
     <mergeCell ref="V14:X14"/>
     <mergeCell ref="P15:R17"/>
@@ -23747,10 +23713,9 @@
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="E15:I15"/>
     <mergeCell ref="B16:E17"/>
-    <mergeCell ref="F16:I17"/>
-    <mergeCell ref="J16:K17"/>
     <mergeCell ref="L16:N17"/>
     <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F16:K17"/>
     <mergeCell ref="T23:U23"/>
     <mergeCell ref="W23:Y23"/>
     <mergeCell ref="B19:D19"/>
@@ -23843,18 +23808,9 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
+      <c r="B2" s="9" t="s">
+        <v>42</v>
+      </c>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="6"/>
@@ -23875,9 +23831,6 @@
     </row>
     <row r="3" ht="54.75" customHeight="1">
       <c r="A3" s="8"/>
-      <c r="B3" s="9" t="s">
-        <v>45</v>
-      </c>
       <c r="N3" s="10"/>
       <c r="O3" s="34"/>
       <c r="Z3" s="8"/>
@@ -23955,8 +23908,8 @@
       <c r="T6" s="23"/>
       <c r="U6" s="23"/>
       <c r="V6" s="1"/>
-      <c r="W6" s="102"/>
-      <c r="X6" s="103"/>
+      <c r="W6" s="101"/>
+      <c r="X6" s="102"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
@@ -23971,8 +23924,8 @@
     </row>
     <row r="7" ht="30.75" customHeight="1">
       <c r="A7" s="8"/>
-      <c r="B7" s="94" t="s">
-        <v>46</v>
+      <c r="B7" s="103" t="s">
+        <v>43</v>
       </c>
       <c r="Y7" s="39"/>
       <c r="Z7" s="8"/>
@@ -24063,7 +24016,7 @@
     <row r="10" ht="13.5" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="43" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="O10" s="23"/>
       <c r="P10" s="23"/>
@@ -24127,7 +24080,7 @@
     <row r="12" ht="13.5" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="45" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C12" s="46"/>
       <c r="D12" s="46"/>
@@ -24289,14 +24242,9 @@
       <c r="G16" s="61"/>
       <c r="H16" s="61"/>
       <c r="I16" s="61"/>
-      <c r="J16" s="63" t="s">
-        <v>28</v>
-      </c>
+      <c r="J16" s="61"/>
       <c r="K16" s="61"/>
-      <c r="L16" s="64">
-        <f>F18*M18/100</f>
-        <v>0</v>
-      </c>
+      <c r="L16" s="63"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
@@ -24321,19 +24269,19 @@
     </row>
     <row r="17" ht="13.5" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="67"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="67"/>
-      <c r="L17" s="67"/>
-      <c r="M17" s="67"/>
-      <c r="N17" s="67"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="66"/>
+      <c r="N17" s="66"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
@@ -24362,32 +24310,26 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="70">
+      <c r="F18" s="69">
         <v>0.0</v>
       </c>
       <c r="G18" s="58"/>
       <c r="H18" s="58"/>
       <c r="I18" s="58"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="72" t="s">
-        <v>29</v>
-      </c>
-      <c r="M18" s="73">
-        <v>10.0</v>
-      </c>
-      <c r="N18" s="71" t="s">
-        <v>30</v>
-      </c>
-      <c r="P18" s="74"/>
-      <c r="Q18" s="74"/>
-      <c r="R18" s="74"/>
-      <c r="S18" s="74"/>
-      <c r="T18" s="74"/>
-      <c r="U18" s="74"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="71"/>
+      <c r="M18" s="72"/>
+      <c r="N18" s="70"/>
+      <c r="P18" s="73"/>
+      <c r="Q18" s="73"/>
+      <c r="R18" s="73"/>
+      <c r="S18" s="73"/>
+      <c r="T18" s="73"/>
+      <c r="U18" s="73"/>
       <c r="V18" s="1"/>
-      <c r="W18" s="75"/>
+      <c r="W18" s="74"/>
       <c r="X18" s="3"/>
-      <c r="Y18" s="76"/>
+      <c r="Y18" s="75"/>
       <c r="Z18" s="20"/>
       <c r="AA18" s="3"/>
       <c r="AB18" s="3"/>
@@ -24401,32 +24343,32 @@
     </row>
     <row r="19" ht="18.0" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="77" t="s">
-        <v>31</v>
+      <c r="B19" s="76" t="s">
+        <v>28</v>
       </c>
-      <c r="C19" s="78"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="78"/>
-      <c r="I19" s="78"/>
-      <c r="J19" s="78"/>
-      <c r="K19" s="78"/>
-      <c r="L19" s="78"/>
-      <c r="M19" s="78"/>
-      <c r="N19" s="78"/>
-      <c r="O19" s="78"/>
-      <c r="P19" s="78"/>
-      <c r="Q19" s="78"/>
-      <c r="R19" s="78"/>
-      <c r="S19" s="78"/>
-      <c r="T19" s="78"/>
-      <c r="U19" s="78"/>
-      <c r="V19" s="78"/>
-      <c r="W19" s="78"/>
-      <c r="X19" s="78"/>
-      <c r="Y19" s="80"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="77"/>
+      <c r="M19" s="77"/>
+      <c r="N19" s="77"/>
+      <c r="O19" s="77"/>
+      <c r="P19" s="77"/>
+      <c r="Q19" s="77"/>
+      <c r="R19" s="77"/>
+      <c r="S19" s="77"/>
+      <c r="T19" s="77"/>
+      <c r="U19" s="77"/>
+      <c r="V19" s="77"/>
+      <c r="W19" s="77"/>
+      <c r="X19" s="77"/>
+      <c r="Y19" s="79"/>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
@@ -24477,27 +24419,27 @@
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="81" t="s">
+      <c r="B21" s="80" t="s">
+        <v>29</v>
+      </c>
+      <c r="N21" s="81"/>
+      <c r="O21" s="80" t="s">
+        <v>30</v>
+      </c>
+      <c r="P21" s="82"/>
+      <c r="Q21" s="80" t="s">
+        <v>31</v>
+      </c>
+      <c r="S21" s="82"/>
+      <c r="T21" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="N21" s="82"/>
-      <c r="O21" s="81" t="s">
+      <c r="V21" s="82"/>
+      <c r="W21" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="P21" s="83"/>
-      <c r="Q21" s="81" t="s">
-        <v>34</v>
-      </c>
-      <c r="S21" s="83"/>
-      <c r="T21" s="81" t="s">
-        <v>35</v>
-      </c>
-      <c r="V21" s="83"/>
-      <c r="W21" s="84" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z21" s="85"/>
-      <c r="AA21" s="85"/>
+      <c r="Z21" s="84"/>
+      <c r="AA21" s="84"/>
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
@@ -24509,32 +24451,32 @@
     </row>
     <row r="22" ht="12.0" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="86" t="s">
-        <v>37</v>
+      <c r="B22" s="85" t="s">
+        <v>34</v>
       </c>
-      <c r="C22" s="87"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="87"/>
-      <c r="F22" s="87"/>
-      <c r="G22" s="87"/>
-      <c r="H22" s="87"/>
-      <c r="I22" s="87"/>
-      <c r="J22" s="87"/>
-      <c r="K22" s="87"/>
-      <c r="L22" s="87"/>
-      <c r="M22" s="87"/>
-      <c r="N22" s="88"/>
-      <c r="O22" s="89"/>
-      <c r="P22" s="89"/>
-      <c r="Q22" s="89"/>
-      <c r="R22" s="89"/>
-      <c r="S22" s="89"/>
-      <c r="T22" s="89"/>
-      <c r="U22" s="89"/>
-      <c r="V22" s="88"/>
-      <c r="W22" s="90"/>
-      <c r="X22" s="88"/>
-      <c r="Y22" s="91"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="86"/>
+      <c r="J22" s="86"/>
+      <c r="K22" s="86"/>
+      <c r="L22" s="86"/>
+      <c r="M22" s="86"/>
+      <c r="N22" s="87"/>
+      <c r="O22" s="88"/>
+      <c r="P22" s="88"/>
+      <c r="Q22" s="88"/>
+      <c r="R22" s="88"/>
+      <c r="S22" s="88"/>
+      <c r="T22" s="88"/>
+      <c r="U22" s="88"/>
+      <c r="V22" s="87"/>
+      <c r="W22" s="89"/>
+      <c r="X22" s="87"/>
+      <c r="Y22" s="90"/>
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
@@ -24586,7 +24528,7 @@
     <row r="24" ht="13.5" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -32799,25 +32741,24 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="21">
     <mergeCell ref="S2:X2"/>
-    <mergeCell ref="B3:M3"/>
     <mergeCell ref="O3:Y5"/>
     <mergeCell ref="B6:M6"/>
     <mergeCell ref="B7:X7"/>
     <mergeCell ref="B10:N10"/>
     <mergeCell ref="E12:I12"/>
+    <mergeCell ref="B2:M3"/>
     <mergeCell ref="B16:E17"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="E19:X19"/>
+    <mergeCell ref="F16:K17"/>
     <mergeCell ref="B21:M21"/>
     <mergeCell ref="Q21:R21"/>
     <mergeCell ref="T21:U21"/>
     <mergeCell ref="W21:Y21"/>
     <mergeCell ref="B22:M22"/>
     <mergeCell ref="B12:D12"/>
-    <mergeCell ref="F16:I17"/>
-    <mergeCell ref="J16:K17"/>
     <mergeCell ref="L16:N17"/>
     <mergeCell ref="F18:I18"/>
     <mergeCell ref="K18:L18"/>
@@ -32937,7 +32878,7 @@
       <c r="AH2" s="3"/>
       <c r="AI2" s="3"/>
     </row>
-    <row r="3" ht="54.75" customHeight="1">
+    <row r="3" ht="74.25" customHeight="1">
       <c r="A3" s="8"/>
       <c r="B3" s="9"/>
       <c r="N3" s="10"/>
@@ -32945,12 +32886,7 @@
       <c r="P3" s="10"/>
       <c r="Q3" s="10"/>
       <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="33"/>
-      <c r="X3" s="6"/>
+      <c r="S3" s="108"/>
       <c r="Y3" s="8"/>
       <c r="Z3" s="8"/>
       <c r="AA3" s="8"/>
@@ -32979,7 +32915,7 @@
       <c r="M4" s="5"/>
       <c r="N4" s="34"/>
       <c r="O4" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="X4" s="20"/>
       <c r="Y4" s="20"/>
@@ -33010,7 +32946,7 @@
       <c r="M5" s="5"/>
       <c r="N5" s="36"/>
       <c r="O5" s="23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="Z5" s="23"/>
       <c r="AA5" s="23"/>
@@ -33038,8 +32974,8 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="36"/>
-      <c r="O6" s="93" t="s">
-        <v>52</v>
+      <c r="O6" s="92" t="s">
+        <v>49</v>
       </c>
       <c r="Z6" s="23"/>
       <c r="AA6" s="23"/>
@@ -33054,8 +32990,8 @@
     </row>
     <row r="7" ht="30.75" customHeight="1">
       <c r="A7" s="8"/>
-      <c r="B7" s="94" t="s">
-        <v>53</v>
+      <c r="B7" s="103" t="s">
+        <v>50</v>
       </c>
       <c r="Y7" s="39"/>
       <c r="Z7" s="8"/>
@@ -33146,13 +33082,13 @@
     <row r="10" ht="13.5" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="43" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="N10" s="23"/>
       <c r="O10" s="23"/>
       <c r="P10" s="23"/>
       <c r="Q10" s="1"/>
-      <c r="R10" s="108"/>
+      <c r="R10" s="109"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
@@ -33189,7 +33125,7 @@
       <c r="O11" s="1"/>
       <c r="P11" s="23"/>
       <c r="Q11" s="1"/>
-      <c r="R11" s="108"/>
+      <c r="R11" s="109"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
@@ -33211,7 +33147,7 @@
     <row r="12" ht="13.5" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="45" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C12" s="46"/>
       <c r="D12" s="46"/>
@@ -33228,7 +33164,7 @@
       <c r="O12" s="1"/>
       <c r="P12" s="23"/>
       <c r="Q12" s="23"/>
-      <c r="R12" s="108"/>
+      <c r="R12" s="109"/>
       <c r="S12" s="23"/>
       <c r="T12" s="23"/>
       <c r="U12" s="23"/>
@@ -33373,14 +33309,9 @@
       <c r="G16" s="61"/>
       <c r="H16" s="61"/>
       <c r="I16" s="61"/>
-      <c r="J16" s="63" t="s">
-        <v>28</v>
-      </c>
+      <c r="J16" s="61"/>
       <c r="K16" s="61"/>
-      <c r="L16" s="64">
-        <f>F18*M18/100</f>
-        <v>0</v>
-      </c>
+      <c r="L16" s="63"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
@@ -33405,19 +33336,19 @@
     </row>
     <row r="17" ht="13.5" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="67"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="67"/>
-      <c r="L17" s="67"/>
-      <c r="M17" s="67"/>
-      <c r="N17" s="67"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="66"/>
+      <c r="N17" s="66"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
@@ -33446,32 +33377,26 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="70">
+      <c r="F18" s="69">
         <v>0.0</v>
       </c>
       <c r="G18" s="58"/>
       <c r="H18" s="58"/>
       <c r="I18" s="58"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="72" t="s">
-        <v>29</v>
-      </c>
-      <c r="M18" s="73">
-        <v>10.0</v>
-      </c>
-      <c r="N18" s="71" t="s">
-        <v>30</v>
-      </c>
-      <c r="P18" s="74"/>
-      <c r="Q18" s="74"/>
-      <c r="R18" s="74"/>
-      <c r="S18" s="74"/>
-      <c r="T18" s="74"/>
-      <c r="U18" s="74"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="71"/>
+      <c r="M18" s="72"/>
+      <c r="N18" s="70"/>
+      <c r="P18" s="73"/>
+      <c r="Q18" s="73"/>
+      <c r="R18" s="73"/>
+      <c r="S18" s="73"/>
+      <c r="T18" s="73"/>
+      <c r="U18" s="73"/>
       <c r="V18" s="1"/>
-      <c r="W18" s="75"/>
+      <c r="W18" s="74"/>
       <c r="X18" s="3"/>
-      <c r="Y18" s="76"/>
+      <c r="Y18" s="75"/>
       <c r="Z18" s="20"/>
       <c r="AA18" s="3"/>
       <c r="AB18" s="3"/>
@@ -33485,32 +33410,32 @@
     </row>
     <row r="19" ht="23.25" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="77" t="s">
-        <v>31</v>
+      <c r="B19" s="76" t="s">
+        <v>28</v>
       </c>
-      <c r="C19" s="78"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="78"/>
-      <c r="I19" s="78"/>
-      <c r="J19" s="78"/>
-      <c r="K19" s="78"/>
-      <c r="L19" s="78"/>
-      <c r="M19" s="78"/>
-      <c r="N19" s="78"/>
-      <c r="O19" s="78"/>
-      <c r="P19" s="78"/>
-      <c r="Q19" s="78"/>
-      <c r="R19" s="78"/>
-      <c r="S19" s="78"/>
-      <c r="T19" s="78"/>
-      <c r="U19" s="78"/>
-      <c r="V19" s="78"/>
-      <c r="W19" s="78"/>
-      <c r="X19" s="78"/>
-      <c r="Y19" s="80"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="77"/>
+      <c r="M19" s="77"/>
+      <c r="N19" s="77"/>
+      <c r="O19" s="77"/>
+      <c r="P19" s="77"/>
+      <c r="Q19" s="77"/>
+      <c r="R19" s="77"/>
+      <c r="S19" s="77"/>
+      <c r="T19" s="77"/>
+      <c r="U19" s="77"/>
+      <c r="V19" s="77"/>
+      <c r="W19" s="77"/>
+      <c r="X19" s="77"/>
+      <c r="Y19" s="79"/>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
@@ -33561,27 +33486,27 @@
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="81" t="s">
+      <c r="B21" s="80" t="s">
+        <v>29</v>
+      </c>
+      <c r="N21" s="81"/>
+      <c r="O21" s="80" t="s">
+        <v>30</v>
+      </c>
+      <c r="P21" s="82"/>
+      <c r="Q21" s="80" t="s">
+        <v>31</v>
+      </c>
+      <c r="S21" s="82"/>
+      <c r="T21" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="N21" s="82"/>
-      <c r="O21" s="81" t="s">
+      <c r="V21" s="82"/>
+      <c r="W21" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="P21" s="83"/>
-      <c r="Q21" s="81" t="s">
-        <v>34</v>
-      </c>
-      <c r="S21" s="83"/>
-      <c r="T21" s="81" t="s">
-        <v>35</v>
-      </c>
-      <c r="V21" s="83"/>
-      <c r="W21" s="84" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z21" s="85"/>
-      <c r="AA21" s="85"/>
+      <c r="Z21" s="84"/>
+      <c r="AA21" s="84"/>
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
@@ -33593,32 +33518,32 @@
     </row>
     <row r="22" ht="11.25" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="86" t="s">
-        <v>37</v>
+      <c r="B22" s="85" t="s">
+        <v>34</v>
       </c>
-      <c r="C22" s="87"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="87"/>
-      <c r="F22" s="87"/>
-      <c r="G22" s="87"/>
-      <c r="H22" s="87"/>
-      <c r="I22" s="87"/>
-      <c r="J22" s="87"/>
-      <c r="K22" s="87"/>
-      <c r="L22" s="87"/>
-      <c r="M22" s="87"/>
-      <c r="N22" s="88"/>
-      <c r="O22" s="89"/>
-      <c r="P22" s="89"/>
-      <c r="Q22" s="89"/>
-      <c r="R22" s="89"/>
-      <c r="S22" s="89"/>
-      <c r="T22" s="89"/>
-      <c r="U22" s="89"/>
-      <c r="V22" s="88"/>
-      <c r="W22" s="90"/>
-      <c r="X22" s="88"/>
-      <c r="Y22" s="91"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="86"/>
+      <c r="J22" s="86"/>
+      <c r="K22" s="86"/>
+      <c r="L22" s="86"/>
+      <c r="M22" s="86"/>
+      <c r="N22" s="87"/>
+      <c r="O22" s="88"/>
+      <c r="P22" s="88"/>
+      <c r="Q22" s="88"/>
+      <c r="R22" s="88"/>
+      <c r="S22" s="88"/>
+      <c r="T22" s="88"/>
+      <c r="U22" s="88"/>
+      <c r="V22" s="87"/>
+      <c r="W22" s="89"/>
+      <c r="X22" s="87"/>
+      <c r="Y22" s="90"/>
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
@@ -33670,7 +33595,7 @@
     <row r="24" ht="15.0" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -41891,6 +41816,7 @@
     <mergeCell ref="O6:Y6"/>
     <mergeCell ref="B7:X7"/>
     <mergeCell ref="B10:M10"/>
+    <mergeCell ref="S3:X3"/>
     <mergeCell ref="K18:L18"/>
     <mergeCell ref="N18:O18"/>
     <mergeCell ref="E19:X19"/>
@@ -41903,10 +41829,9 @@
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="E12:I12"/>
     <mergeCell ref="B16:E17"/>
-    <mergeCell ref="F16:I17"/>
-    <mergeCell ref="J16:K17"/>
     <mergeCell ref="L16:N17"/>
     <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F16:K17"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>

--- a/calimApplication.xlsx
+++ b/calimApplication.xlsx
@@ -819,8 +819,8 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>390525</xdr:rowOff>
     </xdr:from>
@@ -857,7 +857,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>466725</xdr:rowOff>
     </xdr:from>
@@ -16103,7 +16103,8 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="0.75"/>
     <col customWidth="1" min="2" max="3" width="2.63"/>
-    <col customWidth="1" min="4" max="9" width="4.63"/>
+    <col customWidth="1" min="4" max="4" width="5.75"/>
+    <col customWidth="1" min="5" max="9" width="4.63"/>
     <col customWidth="1" min="10" max="10" width="5.0"/>
     <col customWidth="1" min="11" max="13" width="4.63"/>
     <col customWidth="1" min="14" max="14" width="2.0"/>

--- a/calimApplication.xlsx
+++ b/calimApplication.xlsx
@@ -9030,7 +9030,7 @@
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
     </row>
-    <row r="22" ht="12.0" customHeight="1">
+    <row r="22" ht="15.0" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="85" t="s">
         <v>34</v>
@@ -16159,17 +16159,6 @@
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="6"/>
@@ -16184,7 +16173,6 @@
     </row>
     <row r="3" ht="67.5" customHeight="1">
       <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
       <c r="N3" s="10"/>
       <c r="O3" s="10"/>
       <c r="P3" s="10"/>
@@ -23689,13 +23677,13 @@
   </sheetData>
   <mergeCells count="38">
     <mergeCell ref="S2:X2"/>
-    <mergeCell ref="B3:M6"/>
     <mergeCell ref="O4:U4"/>
     <mergeCell ref="O5:X5"/>
     <mergeCell ref="O6:AA6"/>
     <mergeCell ref="B7:X7"/>
     <mergeCell ref="B10:N10"/>
     <mergeCell ref="S3:X3"/>
+    <mergeCell ref="B2:M6"/>
     <mergeCell ref="S14:U14"/>
     <mergeCell ref="V14:X14"/>
     <mergeCell ref="P15:R17"/>
@@ -24450,7 +24438,7 @@
       <c r="AH21" s="1"/>
       <c r="AI21" s="1"/>
     </row>
-    <row r="22" ht="12.0" customHeight="1">
+    <row r="22" ht="16.5" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="85" t="s">
         <v>34</v>
@@ -24489,7 +24477,7 @@
       <c r="AH22" s="1"/>
       <c r="AI22" s="1"/>
     </row>
-    <row r="23" ht="13.5" customHeight="1">
+    <row r="23" ht="16.5" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="107"/>
       <c r="C23" s="107"/>
@@ -24526,7 +24514,7 @@
       <c r="AH23" s="1"/>
       <c r="AI23" s="1"/>
     </row>
-    <row r="24" ht="13.5" customHeight="1">
+    <row r="24" ht="16.5" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
         <v>46</v>
@@ -24565,7 +24553,7 @@
       <c r="AH24" s="1"/>
       <c r="AI24" s="1"/>
     </row>
-    <row r="25" ht="13.5" customHeight="1">
+    <row r="25" ht="16.5" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -24602,7 +24590,7 @@
       <c r="AH25" s="1"/>
       <c r="AI25" s="1"/>
     </row>
-    <row r="26" ht="13.5" customHeight="1">
+    <row r="26" ht="16.5" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -24639,7 +24627,7 @@
       <c r="AH26" s="1"/>
       <c r="AI26" s="1"/>
     </row>
-    <row r="27" ht="13.5" customHeight="1">
+    <row r="27" ht="16.5" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -24676,7 +24664,7 @@
       <c r="AH27" s="1"/>
       <c r="AI27" s="1"/>
     </row>
-    <row r="28" ht="13.5" customHeight="1">
+    <row r="28" ht="16.5" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -33517,7 +33505,7 @@
       <c r="AH21" s="1"/>
       <c r="AI21" s="1"/>
     </row>
-    <row r="22" ht="11.25" customHeight="1">
+    <row r="22" ht="18.0" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="85" t="s">
         <v>34</v>
@@ -33556,7 +33544,7 @@
       <c r="AH22" s="1"/>
       <c r="AI22" s="1"/>
     </row>
-    <row r="23" ht="15.0" customHeight="1">
+    <row r="23" ht="18.0" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -33593,7 +33581,7 @@
       <c r="AH23" s="1"/>
       <c r="AI23" s="1"/>
     </row>
-    <row r="24" ht="15.0" customHeight="1">
+    <row r="24" ht="18.0" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
         <v>46</v>
@@ -33632,7 +33620,7 @@
       <c r="AH24" s="1"/>
       <c r="AI24" s="1"/>
     </row>
-    <row r="25" ht="15.0" customHeight="1">
+    <row r="25" ht="18.0" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -33669,7 +33657,7 @@
       <c r="AH25" s="1"/>
       <c r="AI25" s="1"/>
     </row>
-    <row r="26" ht="15.0" customHeight="1">
+    <row r="26" ht="18.0" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -33706,7 +33694,7 @@
       <c r="AH26" s="1"/>
       <c r="AI26" s="1"/>
     </row>
-    <row r="27" ht="15.0" customHeight="1">
+    <row r="27" ht="18.0" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -33743,7 +33731,7 @@
       <c r="AH27" s="1"/>
       <c r="AI27" s="1"/>
     </row>
-    <row r="28" ht="15.0" customHeight="1">
+    <row r="28" ht="18.0" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -33780,7 +33768,7 @@
       <c r="AH28" s="1"/>
       <c r="AI28" s="1"/>
     </row>
-    <row r="29" ht="15.0" customHeight="1">
+    <row r="29" ht="18.0" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>

--- a/calimApplication.xlsx
+++ b/calimApplication.xlsx
@@ -347,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="88">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -386,12 +386,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -600,12 +594,12 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>390525</xdr:rowOff>
+      <xdr:rowOff>476250</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="666750" cy="676275"/>
+    <xdr:ext cx="590550" cy="590550"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="0" name="image1.png" title="Image"/>
@@ -640,9 +634,9 @@
       <xdr:col>19</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>466725</xdr:rowOff>
+      <xdr:rowOff>523875</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="666750" cy="676275"/>
+    <xdr:ext cx="619125" cy="619125"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="0" name="image1.png" title="Image"/>
@@ -964,10 +958,6 @@
       <c r="P4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="U4" s="11"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="14"/>
       <c r="Y4" s="9"/>
       <c r="Z4" s="9"/>
       <c r="AA4" s="9"/>
@@ -976,9 +966,9 @@
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="17" t="s">
+      <c r="N5" s="13"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="15" t="s">
         <v>1</v>
       </c>
       <c r="Y5" s="1"/>
@@ -989,23 +979,21 @@
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="19" t="s">
+      <c r="N6" s="13"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="Y6" s="18"/>
-      <c r="Z6" s="18"/>
-      <c r="AA6" s="18"/>
+      <c r="AA6" s="16"/>
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
     </row>
     <row r="7" ht="30.75" customHeight="1">
       <c r="A7" s="8"/>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="Y7" s="21"/>
+      <c r="Y7" s="19"/>
       <c r="Z7" s="8"/>
       <c r="AA7" s="8"/>
       <c r="AB7" s="8"/>
@@ -1013,30 +1001,30 @@
     </row>
     <row r="8" ht="5.25" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="22"/>
-      <c r="V8" s="22"/>
-      <c r="W8" s="23"/>
-      <c r="X8" s="22"/>
-      <c r="Y8" s="22"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="20"/>
+      <c r="Y8" s="20"/>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
@@ -1044,30 +1032,30 @@
     </row>
     <row r="9" ht="6.0" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="22"/>
-      <c r="V9" s="22"/>
-      <c r="W9" s="23"/>
-      <c r="X9" s="22"/>
-      <c r="Y9" s="22"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="20"/>
+      <c r="Y9" s="20"/>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
@@ -1075,18 +1063,18 @@
     </row>
     <row r="10" ht="13.5" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="18"/>
-      <c r="W10" s="25"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="23"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
@@ -1127,18 +1115,18 @@
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -1160,18 +1148,18 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -1185,7 +1173,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
-      <c r="Y13" s="18"/>
+      <c r="Y13" s="16"/>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
@@ -1193,36 +1181,36 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
-      <c r="P14" s="33" t="s">
+      <c r="P14" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="35"/>
-      <c r="S14" s="33" t="s">
+      <c r="Q14" s="32"/>
+      <c r="R14" s="33"/>
+      <c r="S14" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="34"/>
-      <c r="U14" s="35"/>
-      <c r="V14" s="33" t="s">
+      <c r="T14" s="32"/>
+      <c r="U14" s="33"/>
+      <c r="V14" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="W14" s="34"/>
-      <c r="X14" s="35"/>
-      <c r="Y14" s="36"/>
+      <c r="W14" s="32"/>
+      <c r="X14" s="33"/>
+      <c r="Y14" s="34"/>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
@@ -1230,30 +1218,30 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="40"/>
-      <c r="S15" s="38"/>
-      <c r="T15" s="39"/>
-      <c r="U15" s="40"/>
-      <c r="V15" s="38"/>
-      <c r="W15" s="39"/>
-      <c r="X15" s="40"/>
-      <c r="Y15" s="18"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="37"/>
+      <c r="U15" s="38"/>
+      <c r="V15" s="36"/>
+      <c r="W15" s="37"/>
+      <c r="X15" s="38"/>
+      <c r="Y15" s="16"/>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
@@ -1261,30 +1249,30 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="43">
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="41">
         <f>F18+L16</f>
         <v>0</v>
       </c>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="44"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="42"/>
       <c r="O16" s="1"/>
-      <c r="P16" s="45"/>
-      <c r="R16" s="46"/>
-      <c r="S16" s="45"/>
-      <c r="U16" s="46"/>
-      <c r="V16" s="45"/>
-      <c r="X16" s="46"/>
-      <c r="Y16" s="18"/>
+      <c r="P16" s="43"/>
+      <c r="R16" s="44"/>
+      <c r="S16" s="43"/>
+      <c r="U16" s="44"/>
+      <c r="V16" s="43"/>
+      <c r="X16" s="44"/>
+      <c r="Y16" s="16"/>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
@@ -1292,29 +1280,29 @@
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="47"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="45"/>
       <c r="O17" s="1"/>
-      <c r="P17" s="48"/>
-      <c r="Q17" s="47"/>
-      <c r="R17" s="49"/>
-      <c r="S17" s="48"/>
-      <c r="T17" s="47"/>
-      <c r="U17" s="49"/>
-      <c r="V17" s="48"/>
-      <c r="W17" s="47"/>
-      <c r="X17" s="49"/>
+      <c r="P17" s="46"/>
+      <c r="Q17" s="45"/>
+      <c r="R17" s="47"/>
+      <c r="S17" s="46"/>
+      <c r="T17" s="45"/>
+      <c r="U17" s="47"/>
+      <c r="V17" s="46"/>
+      <c r="W17" s="45"/>
+      <c r="X17" s="47"/>
       <c r="Y17" s="11"/>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
@@ -1327,26 +1315,26 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="50">
+      <c r="F18" s="48">
         <v>0.0</v>
       </c>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="52"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="51"/>
-      <c r="P18" s="54"/>
-      <c r="Q18" s="54"/>
-      <c r="R18" s="54"/>
-      <c r="S18" s="54"/>
-      <c r="T18" s="54"/>
-      <c r="U18" s="54"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="50"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="49"/>
+      <c r="P18" s="52"/>
+      <c r="Q18" s="52"/>
+      <c r="R18" s="52"/>
+      <c r="S18" s="52"/>
+      <c r="T18" s="52"/>
+      <c r="U18" s="52"/>
       <c r="V18" s="1"/>
-      <c r="W18" s="55"/>
+      <c r="W18" s="53"/>
       <c r="X18" s="3"/>
-      <c r="Y18" s="56"/>
+      <c r="Y18" s="54"/>
       <c r="Z18" s="11"/>
       <c r="AA18" s="3"/>
       <c r="AB18" s="3"/>
@@ -1354,32 +1342,32 @@
     </row>
     <row r="19" ht="21.0" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="57" t="s">
+      <c r="B19" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="58"/>
-      <c r="N19" s="58"/>
-      <c r="O19" s="58"/>
-      <c r="P19" s="58"/>
-      <c r="Q19" s="58"/>
-      <c r="R19" s="58"/>
-      <c r="S19" s="58"/>
-      <c r="T19" s="58"/>
-      <c r="U19" s="58"/>
-      <c r="V19" s="58"/>
-      <c r="W19" s="58"/>
-      <c r="X19" s="58"/>
-      <c r="Y19" s="60"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="56"/>
+      <c r="R19" s="56"/>
+      <c r="S19" s="56"/>
+      <c r="T19" s="56"/>
+      <c r="U19" s="56"/>
+      <c r="V19" s="56"/>
+      <c r="W19" s="56"/>
+      <c r="X19" s="56"/>
+      <c r="Y19" s="58"/>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
@@ -1418,121 +1406,121 @@
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="61" t="s">
+      <c r="B21" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="N21" s="62"/>
-      <c r="O21" s="61" t="s">
+      <c r="N21" s="60"/>
+      <c r="O21" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="P21" s="63"/>
-      <c r="Q21" s="61" t="s">
+      <c r="P21" s="61"/>
+      <c r="Q21" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="S21" s="63"/>
-      <c r="T21" s="61" t="s">
+      <c r="S21" s="61"/>
+      <c r="T21" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="V21" s="63"/>
-      <c r="W21" s="64" t="s">
+      <c r="V21" s="61"/>
+      <c r="W21" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="Z21" s="65"/>
-      <c r="AA21" s="65"/>
+      <c r="Z21" s="63"/>
+      <c r="AA21" s="63"/>
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
     </row>
     <row r="22" ht="18.0" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="66" t="s">
+      <c r="B22" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="67"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="67"/>
-      <c r="L22" s="67"/>
-      <c r="M22" s="67"/>
-      <c r="N22" s="68"/>
-      <c r="O22" s="69"/>
-      <c r="P22" s="69"/>
-      <c r="Q22" s="69"/>
-      <c r="R22" s="69"/>
-      <c r="S22" s="69"/>
-      <c r="T22" s="69"/>
-      <c r="U22" s="69"/>
-      <c r="V22" s="68"/>
-      <c r="W22" s="70"/>
-      <c r="X22" s="68"/>
-      <c r="Y22" s="71"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="65"/>
+      <c r="M22" s="65"/>
+      <c r="N22" s="66"/>
+      <c r="O22" s="67"/>
+      <c r="P22" s="67"/>
+      <c r="Q22" s="67"/>
+      <c r="R22" s="67"/>
+      <c r="S22" s="67"/>
+      <c r="T22" s="67"/>
+      <c r="U22" s="67"/>
+      <c r="V22" s="66"/>
+      <c r="W22" s="68"/>
+      <c r="X22" s="66"/>
+      <c r="Y22" s="69"/>
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
     </row>
     <row r="23" ht="18.0" customHeight="1">
-      <c r="A23" s="72"/>
-      <c r="B23" s="73"/>
-      <c r="C23" s="73"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="73"/>
-      <c r="I23" s="73"/>
-      <c r="J23" s="73"/>
-      <c r="K23" s="73"/>
-      <c r="L23" s="73"/>
-      <c r="M23" s="73"/>
-      <c r="N23" s="73"/>
-      <c r="O23" s="74"/>
-      <c r="P23" s="75"/>
-      <c r="Q23" s="76"/>
-      <c r="R23" s="76"/>
-      <c r="S23" s="75"/>
-      <c r="T23" s="75"/>
-      <c r="U23" s="76"/>
-      <c r="V23" s="74"/>
-      <c r="W23" s="74"/>
-      <c r="X23" s="76"/>
-      <c r="Y23" s="76"/>
-      <c r="Z23" s="74"/>
+      <c r="A23" s="70"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="71"/>
+      <c r="L23" s="71"/>
+      <c r="M23" s="71"/>
+      <c r="N23" s="71"/>
+      <c r="O23" s="72"/>
+      <c r="P23" s="73"/>
+      <c r="Q23" s="74"/>
+      <c r="R23" s="74"/>
+      <c r="S23" s="73"/>
+      <c r="T23" s="73"/>
+      <c r="U23" s="74"/>
+      <c r="V23" s="72"/>
+      <c r="W23" s="72"/>
+      <c r="X23" s="74"/>
+      <c r="Y23" s="74"/>
+      <c r="Z23" s="72"/>
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
     </row>
     <row r="24" ht="18.0" customHeight="1">
-      <c r="A24" s="72"/>
-      <c r="B24" s="72"/>
-      <c r="C24" s="72"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="72"/>
-      <c r="J24" s="72"/>
-      <c r="K24" s="72"/>
-      <c r="L24" s="72"/>
-      <c r="M24" s="72"/>
-      <c r="N24" s="72"/>
-      <c r="O24" s="77"/>
-      <c r="P24" s="78"/>
-      <c r="Q24" s="78"/>
-      <c r="R24" s="78"/>
-      <c r="S24" s="78"/>
-      <c r="T24" s="78"/>
-      <c r="U24" s="78"/>
-      <c r="V24" s="77"/>
-      <c r="W24" s="77"/>
-      <c r="X24" s="77"/>
-      <c r="Y24" s="77"/>
-      <c r="Z24" s="77"/>
+      <c r="A24" s="70"/>
+      <c r="B24" s="70"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="70"/>
+      <c r="L24" s="70"/>
+      <c r="M24" s="70"/>
+      <c r="N24" s="70"/>
+      <c r="O24" s="75"/>
+      <c r="P24" s="76"/>
+      <c r="Q24" s="76"/>
+      <c r="R24" s="76"/>
+      <c r="S24" s="76"/>
+      <c r="T24" s="76"/>
+      <c r="U24" s="76"/>
+      <c r="V24" s="75"/>
+      <c r="W24" s="75"/>
+      <c r="X24" s="75"/>
+      <c r="Y24" s="75"/>
+      <c r="Z24" s="75"/>
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
       <c r="AC24" s="1"/>
@@ -8460,9 +8448,9 @@
     <mergeCell ref="B10:N10"/>
     <mergeCell ref="S3:X3"/>
     <mergeCell ref="B2:M6"/>
-    <mergeCell ref="P4:T4"/>
     <mergeCell ref="P5:X5"/>
-    <mergeCell ref="P6:X6"/>
+    <mergeCell ref="P6:Z6"/>
+    <mergeCell ref="P4:X4"/>
     <mergeCell ref="S14:U14"/>
     <mergeCell ref="V14:X14"/>
     <mergeCell ref="P15:R17"/>
@@ -8576,7 +8564,7 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="77" t="s">
         <v>18</v>
       </c>
       <c r="N2" s="5"/>
@@ -8652,7 +8640,7 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="15"/>
+      <c r="N5" s="13"/>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
@@ -8666,18 +8654,18 @@
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="24"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
+      <c r="B6" s="22"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
       <c r="V6" s="1"/>
-      <c r="W6" s="80"/>
-      <c r="X6" s="81"/>
+      <c r="W6" s="78"/>
+      <c r="X6" s="79"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
@@ -8692,10 +8680,10 @@
     </row>
     <row r="7" ht="30.75" customHeight="1">
       <c r="A7" s="8"/>
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="Y7" s="21"/>
+      <c r="Y7" s="19"/>
       <c r="Z7" s="8"/>
       <c r="AA7" s="8"/>
       <c r="AB7" s="8"/>
@@ -8709,30 +8697,30 @@
     </row>
     <row r="8" ht="5.25" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="22"/>
-      <c r="V8" s="22"/>
-      <c r="W8" s="23"/>
-      <c r="X8" s="22"/>
-      <c r="Y8" s="22"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="20"/>
+      <c r="Y8" s="20"/>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
@@ -8746,30 +8734,30 @@
     </row>
     <row r="9" ht="6.0" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="22"/>
-      <c r="V9" s="22"/>
-      <c r="W9" s="23"/>
-      <c r="X9" s="22"/>
-      <c r="Y9" s="22"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="20"/>
+      <c r="Y9" s="20"/>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
@@ -8783,18 +8771,18 @@
     </row>
     <row r="10" ht="13.5" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="18"/>
-      <c r="W10" s="25"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="23"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
@@ -8810,28 +8798,28 @@
     </row>
     <row r="11" ht="6.0" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="18"/>
-      <c r="W11" s="25"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="23"/>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
@@ -8847,18 +8835,18 @@
     </row>
     <row r="12" ht="13.5" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="83"/>
-      <c r="K12" s="83"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="81"/>
+      <c r="K12" s="81"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -8886,16 +8874,16 @@
     </row>
     <row r="13" ht="13.5" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -8923,16 +8911,16 @@
     </row>
     <row r="14" ht="13.5" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -8960,16 +8948,16 @@
     </row>
     <row r="15" ht="13.5" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="85"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -8997,22 +8985,22 @@
     </row>
     <row r="16" ht="13.5" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="43">
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="41">
         <f>F18+L16</f>
         <v>0</v>
       </c>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="44"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="42"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
@@ -9037,19 +9025,19 @@
     </row>
     <row r="17" ht="13.5" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="47"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="45"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
@@ -9078,26 +9066,26 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="50">
+      <c r="F18" s="48">
         <v>0.0</v>
       </c>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="52"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="51"/>
-      <c r="P18" s="54"/>
-      <c r="Q18" s="54"/>
-      <c r="R18" s="54"/>
-      <c r="S18" s="54"/>
-      <c r="T18" s="54"/>
-      <c r="U18" s="54"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="50"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="49"/>
+      <c r="P18" s="52"/>
+      <c r="Q18" s="52"/>
+      <c r="R18" s="52"/>
+      <c r="S18" s="52"/>
+      <c r="T18" s="52"/>
+      <c r="U18" s="52"/>
       <c r="V18" s="1"/>
-      <c r="W18" s="55"/>
+      <c r="W18" s="53"/>
       <c r="X18" s="3"/>
-      <c r="Y18" s="56"/>
+      <c r="Y18" s="54"/>
       <c r="Z18" s="11"/>
       <c r="AA18" s="3"/>
       <c r="AB18" s="3"/>
@@ -9111,32 +9099,32 @@
     </row>
     <row r="19" ht="18.0" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="57" t="s">
+      <c r="B19" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="58"/>
-      <c r="N19" s="58"/>
-      <c r="O19" s="58"/>
-      <c r="P19" s="58"/>
-      <c r="Q19" s="58"/>
-      <c r="R19" s="58"/>
-      <c r="S19" s="58"/>
-      <c r="T19" s="58"/>
-      <c r="U19" s="58"/>
-      <c r="V19" s="58"/>
-      <c r="W19" s="58"/>
-      <c r="X19" s="58"/>
-      <c r="Y19" s="60"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="56"/>
+      <c r="R19" s="56"/>
+      <c r="S19" s="56"/>
+      <c r="T19" s="56"/>
+      <c r="U19" s="56"/>
+      <c r="V19" s="56"/>
+      <c r="W19" s="56"/>
+      <c r="X19" s="56"/>
+      <c r="Y19" s="58"/>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
@@ -9187,27 +9175,27 @@
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="61" t="s">
+      <c r="B21" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="N21" s="62"/>
-      <c r="O21" s="61" t="s">
+      <c r="N21" s="60"/>
+      <c r="O21" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="P21" s="63"/>
-      <c r="Q21" s="61" t="s">
+      <c r="P21" s="61"/>
+      <c r="Q21" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="S21" s="63"/>
-      <c r="T21" s="61" t="s">
+      <c r="S21" s="61"/>
+      <c r="T21" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="V21" s="63"/>
-      <c r="W21" s="64" t="s">
+      <c r="V21" s="61"/>
+      <c r="W21" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="Z21" s="65"/>
-      <c r="AA21" s="65"/>
+      <c r="Z21" s="63"/>
+      <c r="AA21" s="63"/>
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
@@ -9219,32 +9207,32 @@
     </row>
     <row r="22" ht="16.5" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="66" t="s">
+      <c r="B22" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="67"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="67"/>
-      <c r="L22" s="67"/>
-      <c r="M22" s="67"/>
-      <c r="N22" s="68"/>
-      <c r="O22" s="69"/>
-      <c r="P22" s="69"/>
-      <c r="Q22" s="69"/>
-      <c r="R22" s="69"/>
-      <c r="S22" s="69"/>
-      <c r="T22" s="69"/>
-      <c r="U22" s="69"/>
-      <c r="V22" s="68"/>
-      <c r="W22" s="70"/>
-      <c r="X22" s="68"/>
-      <c r="Y22" s="71"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="65"/>
+      <c r="M22" s="65"/>
+      <c r="N22" s="66"/>
+      <c r="O22" s="67"/>
+      <c r="P22" s="67"/>
+      <c r="Q22" s="67"/>
+      <c r="R22" s="67"/>
+      <c r="S22" s="67"/>
+      <c r="T22" s="67"/>
+      <c r="U22" s="67"/>
+      <c r="V22" s="66"/>
+      <c r="W22" s="68"/>
+      <c r="X22" s="66"/>
+      <c r="Y22" s="69"/>
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
@@ -9258,30 +9246,30 @@
     </row>
     <row r="23" ht="16.5" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="86"/>
-      <c r="K23" s="86"/>
-      <c r="L23" s="86"/>
-      <c r="M23" s="86"/>
-      <c r="N23" s="86"/>
-      <c r="O23" s="86"/>
-      <c r="P23" s="86"/>
-      <c r="Q23" s="86"/>
-      <c r="R23" s="86"/>
-      <c r="S23" s="86"/>
-      <c r="T23" s="86"/>
-      <c r="U23" s="86"/>
-      <c r="V23" s="86"/>
-      <c r="W23" s="86"/>
-      <c r="X23" s="86"/>
-      <c r="Y23" s="86"/>
+      <c r="B23" s="84"/>
+      <c r="C23" s="84"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="84"/>
+      <c r="H23" s="84"/>
+      <c r="I23" s="84"/>
+      <c r="J23" s="84"/>
+      <c r="K23" s="84"/>
+      <c r="L23" s="84"/>
+      <c r="M23" s="84"/>
+      <c r="N23" s="84"/>
+      <c r="O23" s="84"/>
+      <c r="P23" s="84"/>
+      <c r="Q23" s="84"/>
+      <c r="R23" s="84"/>
+      <c r="S23" s="84"/>
+      <c r="T23" s="84"/>
+      <c r="U23" s="84"/>
+      <c r="V23" s="84"/>
+      <c r="W23" s="84"/>
+      <c r="X23" s="84"/>
+      <c r="Y23" s="84"/>
       <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
@@ -9348,14 +9336,14 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
-      <c r="P25" s="18"/>
-      <c r="Q25" s="18"/>
-      <c r="R25" s="18"/>
-      <c r="S25" s="18"/>
-      <c r="T25" s="18"/>
-      <c r="U25" s="18"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="16"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="16"/>
       <c r="V25" s="1"/>
-      <c r="W25" s="25"/>
+      <c r="W25" s="23"/>
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
@@ -9385,14 +9373,14 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="18"/>
-      <c r="R26" s="18"/>
-      <c r="S26" s="18"/>
-      <c r="T26" s="18"/>
-      <c r="U26" s="18"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="16"/>
       <c r="V26" s="1"/>
-      <c r="W26" s="25"/>
+      <c r="W26" s="23"/>
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
@@ -17648,13 +17636,13 @@
     </row>
     <row r="3" ht="74.25" customHeight="1">
       <c r="A3" s="8"/>
-      <c r="B3" s="79"/>
+      <c r="B3" s="77"/>
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
       <c r="Q3" s="9"/>
       <c r="R3" s="9"/>
-      <c r="S3" s="87"/>
+      <c r="S3" s="85"/>
       <c r="Y3" s="8"/>
       <c r="Z3" s="8"/>
       <c r="AA3" s="8"/>
@@ -17712,12 +17700,12 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="18" t="s">
+      <c r="N5" s="13"/>
+      <c r="O5" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="Z5" s="18"/>
-      <c r="AA5" s="18"/>
+      <c r="Z5" s="16"/>
+      <c r="AA5" s="16"/>
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
@@ -17729,9 +17717,9 @@
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
+      <c r="B6" s="86"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -17741,12 +17729,12 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="16" t="s">
+      <c r="N6" s="13"/>
+      <c r="O6" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="Z6" s="18"/>
-      <c r="AA6" s="18"/>
+      <c r="Z6" s="16"/>
+      <c r="AA6" s="16"/>
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
@@ -17758,10 +17746,10 @@
     </row>
     <row r="7" ht="30.75" customHeight="1">
       <c r="A7" s="8"/>
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="Y7" s="21"/>
+      <c r="Y7" s="19"/>
       <c r="Z7" s="8"/>
       <c r="AA7" s="8"/>
       <c r="AB7" s="8"/>
@@ -17775,30 +17763,30 @@
     </row>
     <row r="8" ht="5.25" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="22"/>
-      <c r="V8" s="22"/>
-      <c r="W8" s="23"/>
-      <c r="X8" s="22"/>
-      <c r="Y8" s="22"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="20"/>
+      <c r="Y8" s="20"/>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
@@ -17812,30 +17800,30 @@
     </row>
     <row r="9" ht="6.0" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="22"/>
-      <c r="V9" s="22"/>
-      <c r="W9" s="23"/>
-      <c r="X9" s="22"/>
-      <c r="Y9" s="22"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="20"/>
+      <c r="Y9" s="20"/>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
@@ -17849,14 +17837,14 @@
     </row>
     <row r="10" ht="13.5" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
       <c r="Q10" s="1"/>
-      <c r="R10" s="89"/>
+      <c r="R10" s="87"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
@@ -17891,9 +17879,9 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
-      <c r="P11" s="18"/>
+      <c r="P11" s="16"/>
       <c r="Q11" s="1"/>
-      <c r="R11" s="89"/>
+      <c r="R11" s="87"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
@@ -17914,28 +17902,28 @@
     </row>
     <row r="12" ht="13.5" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="89"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="18"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="87"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
@@ -17953,16 +17941,16 @@
     </row>
     <row r="13" ht="13.5" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -17990,16 +17978,16 @@
     </row>
     <row r="14" ht="13.5" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -18027,16 +18015,16 @@
     </row>
     <row r="15" ht="13.5" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="85"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -18064,22 +18052,22 @@
     </row>
     <row r="16" ht="13.5" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="43">
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="41">
         <f>F18+L16</f>
         <v>0</v>
       </c>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="44"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="42"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
@@ -18104,19 +18092,19 @@
     </row>
     <row r="17" ht="13.5" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="47"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="45"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
@@ -18145,26 +18133,26 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="50">
+      <c r="F18" s="48">
         <v>0.0</v>
       </c>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="52"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="51"/>
-      <c r="P18" s="54"/>
-      <c r="Q18" s="54"/>
-      <c r="R18" s="54"/>
-      <c r="S18" s="54"/>
-      <c r="T18" s="54"/>
-      <c r="U18" s="54"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="50"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="49"/>
+      <c r="P18" s="52"/>
+      <c r="Q18" s="52"/>
+      <c r="R18" s="52"/>
+      <c r="S18" s="52"/>
+      <c r="T18" s="52"/>
+      <c r="U18" s="52"/>
       <c r="V18" s="1"/>
-      <c r="W18" s="55"/>
+      <c r="W18" s="53"/>
       <c r="X18" s="3"/>
-      <c r="Y18" s="56"/>
+      <c r="Y18" s="54"/>
       <c r="Z18" s="11"/>
       <c r="AA18" s="3"/>
       <c r="AB18" s="3"/>
@@ -18178,32 +18166,32 @@
     </row>
     <row r="19" ht="23.25" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="57" t="s">
+      <c r="B19" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="58"/>
-      <c r="N19" s="58"/>
-      <c r="O19" s="58"/>
-      <c r="P19" s="58"/>
-      <c r="Q19" s="58"/>
-      <c r="R19" s="58"/>
-      <c r="S19" s="58"/>
-      <c r="T19" s="58"/>
-      <c r="U19" s="58"/>
-      <c r="V19" s="58"/>
-      <c r="W19" s="58"/>
-      <c r="X19" s="58"/>
-      <c r="Y19" s="60"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="56"/>
+      <c r="R19" s="56"/>
+      <c r="S19" s="56"/>
+      <c r="T19" s="56"/>
+      <c r="U19" s="56"/>
+      <c r="V19" s="56"/>
+      <c r="W19" s="56"/>
+      <c r="X19" s="56"/>
+      <c r="Y19" s="58"/>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
@@ -18254,27 +18242,27 @@
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="61" t="s">
+      <c r="B21" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="N21" s="62"/>
-      <c r="O21" s="61" t="s">
+      <c r="N21" s="60"/>
+      <c r="O21" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="P21" s="63"/>
-      <c r="Q21" s="61" t="s">
+      <c r="P21" s="61"/>
+      <c r="Q21" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="S21" s="63"/>
-      <c r="T21" s="61" t="s">
+      <c r="S21" s="61"/>
+      <c r="T21" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="V21" s="63"/>
-      <c r="W21" s="64" t="s">
+      <c r="V21" s="61"/>
+      <c r="W21" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="Z21" s="65"/>
-      <c r="AA21" s="65"/>
+      <c r="Z21" s="63"/>
+      <c r="AA21" s="63"/>
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
@@ -18286,32 +18274,32 @@
     </row>
     <row r="22" ht="18.0" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="66" t="s">
+      <c r="B22" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="67"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="67"/>
-      <c r="L22" s="67"/>
-      <c r="M22" s="67"/>
-      <c r="N22" s="68"/>
-      <c r="O22" s="69"/>
-      <c r="P22" s="69"/>
-      <c r="Q22" s="69"/>
-      <c r="R22" s="69"/>
-      <c r="S22" s="69"/>
-      <c r="T22" s="69"/>
-      <c r="U22" s="69"/>
-      <c r="V22" s="68"/>
-      <c r="W22" s="70"/>
-      <c r="X22" s="68"/>
-      <c r="Y22" s="71"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="65"/>
+      <c r="M22" s="65"/>
+      <c r="N22" s="66"/>
+      <c r="O22" s="67"/>
+      <c r="P22" s="67"/>
+      <c r="Q22" s="67"/>
+      <c r="R22" s="67"/>
+      <c r="S22" s="67"/>
+      <c r="T22" s="67"/>
+      <c r="U22" s="67"/>
+      <c r="V22" s="66"/>
+      <c r="W22" s="68"/>
+      <c r="X22" s="66"/>
+      <c r="Y22" s="69"/>
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>

--- a/calimApplication.xlsx
+++ b/calimApplication.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
   <si>
     <t>株式会社 クーシー</t>
   </si>
@@ -86,13 +86,10 @@
     <t xml:space="preserve">　</t>
   </si>
   <si>
-    <t xml:space="preserve">  株式会社 クーシー </t>
+    <t xml:space="preserve">株式会社 クーシー </t>
   </si>
   <si>
-    <t xml:space="preserve">  〒150-0011東京都渋谷区東3-16-3 7F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  TEL：03-5766-6095　FAX：03-5766-6096 </t>
+    <t>TEL : 03-5766-6069 FAX : 03-5766-6069</t>
   </si>
   <si>
     <t>納　品　書</t>
@@ -631,8 +628,8 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>523875</xdr:rowOff>
     </xdr:from>
@@ -17670,7 +17667,8 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
       <c r="N4" s="10"/>
-      <c r="O4" s="11" t="s">
+      <c r="O4" s="12"/>
+      <c r="P4" s="12" t="s">
         <v>23</v>
       </c>
       <c r="X4" s="11"/>
@@ -17701,10 +17699,10 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="13"/>
-      <c r="O5" s="16" t="s">
-        <v>24</v>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17" t="s">
+        <v>2</v>
       </c>
-      <c r="Z5" s="16"/>
       <c r="AA5" s="16"/>
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
@@ -17730,10 +17728,10 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="13"/>
-      <c r="O6" s="14" t="s">
-        <v>25</v>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17" t="s">
+        <v>24</v>
       </c>
-      <c r="Z6" s="16"/>
       <c r="AA6" s="16"/>
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
@@ -17747,7 +17745,7 @@
     <row r="7" ht="30.75" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="80" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y7" s="19"/>
       <c r="Z7" s="8"/>
@@ -17838,7 +17836,7 @@
     <row r="10" ht="13.5" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
@@ -17903,7 +17901,7 @@
     <row r="12" ht="13.5" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="25"/>
       <c r="D12" s="25"/>
@@ -26567,12 +26565,12 @@
   <mergeCells count="23">
     <mergeCell ref="S2:X2"/>
     <mergeCell ref="B3:M3"/>
-    <mergeCell ref="O4:W4"/>
-    <mergeCell ref="O5:Y5"/>
-    <mergeCell ref="O6:Y6"/>
     <mergeCell ref="B7:X7"/>
     <mergeCell ref="B10:M10"/>
     <mergeCell ref="S3:X3"/>
+    <mergeCell ref="P6:Z6"/>
+    <mergeCell ref="P5:Z5"/>
+    <mergeCell ref="P4:W4"/>
     <mergeCell ref="K18:L18"/>
     <mergeCell ref="N18:O18"/>
     <mergeCell ref="E19:X19"/>

--- a/calimApplication.xlsx
+++ b/calimApplication.xlsx
@@ -8506,7 +8506,8 @@
     <col customWidth="1" min="2" max="3" width="2.63"/>
     <col customWidth="1" min="4" max="9" width="4.63"/>
     <col customWidth="1" min="10" max="10" width="5.0"/>
-    <col customWidth="1" min="11" max="13" width="4.63"/>
+    <col customWidth="1" min="11" max="12" width="4.63"/>
+    <col customWidth="1" min="13" max="13" width="6.5"/>
     <col customWidth="1" min="14" max="14" width="1.63"/>
     <col customWidth="1" min="15" max="15" width="9.88"/>
     <col customWidth="1" min="16" max="16" width="1.5"/>
